--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail11 Features.xlsx
@@ -6342,7 +6342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6353,29 +6353,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6396,115 +6394,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6521,72 +6509,66 @@
         <v>2.455445387956191e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2107122595811801</v>
+        <v>9.868010745346333e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.091294062415884</v>
+        <v>2.162740668288071e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.868010745346333e-07</v>
+        <v>0.01349490424806273</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.162740668288071e-06</v>
+        <v>0.1879641433632947</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01349490424806273</v>
+        <v>0.03545878971954738</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1879641433632947</v>
+        <v>1.905871807096025</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03545878971954738</v>
+        <v>2.333535355654449</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.90995129627437</v>
+        <v>4.108484598985158</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.333535355654449</v>
+        <v>1.240427542317807e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.108484598985158</v>
+        <v>1133538207.791809</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.240427542317807e-16</v>
+        <v>1.0638685961945e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1133538207.791809</v>
+        <v>159.3836349885414</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.0638685961945e-07</v>
+        <v>0.0001598085332407437</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>159.3836349885414</v>
+        <v>9.403840162270072</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001598085332407437</v>
+        <v>1.288314071113827</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.403840162270072</v>
+        <v>0.01413222173897997</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.288314071113827</v>
+        <v>3.044178834998872</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01413222173897997</v>
+        <v>0.9594618188019077</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.044178834998872</v>
+        <v>1.323860868019317</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9594618188019077</v>
+        <v>63</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.323860868019317</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4652597752107125</v>
       </c>
     </row>
@@ -6601,72 +6583,66 @@
         <v>2.429431703632446e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2542065966340905</v>
+        <v>7.987687740596359e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.144210601867099</v>
+        <v>2.164261262710633e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.987687740596359e-07</v>
+        <v>-0.0003465592637491629</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.164261262710633e-06</v>
+        <v>0.1600084508819864</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0003465592637491629</v>
+        <v>0.02557250890295137</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1600084508819864</v>
+        <v>1.905888142102074</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02557250890295137</v>
+        <v>2.368774670246471</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.912997370393785</v>
+        <v>4.070366655888149</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.368774670246471</v>
+        <v>1.263768899482778e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.070366655888149</v>
+        <v>1117961001.408845</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.263768899482778e-16</v>
+        <v>1.077411763396232e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1117961001.408845</v>
+        <v>157.9504878117152</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.077411763396232e-07</v>
+        <v>0.0001506345912816061</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>157.9504878117152</v>
+        <v>9.896525742266171</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001506345912816061</v>
+        <v>1.193844483360706</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.896525742266171</v>
+        <v>0.01475333591054395</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.193844483360706</v>
+        <v>2.962469839567449</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01475333591054395</v>
+        <v>0.9579049619724754</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.962469839567449</v>
+        <v>1.329342894699233</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9579049619724754</v>
+        <v>67</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.329342894699233</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.4237180696340077</v>
       </c>
     </row>
@@ -6681,72 +6657,66 @@
         <v>2.447506948443444e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.237714189358509</v>
+        <v>8.089059892042491e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.143911334815167</v>
+        <v>2.162825793755847e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.089059892042491e-07</v>
+        <v>-0.01085695353168516</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.162825793755847e-06</v>
+        <v>0.1389549894334721</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01085695353168516</v>
+        <v>0.01940919991321782</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1389549894334721</v>
+        <v>1.910468603605615</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01940919991321782</v>
+        <v>2.219597785154864</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.917484930182273</v>
+        <v>4.119406241442577</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.219597785154864</v>
+        <v>1.233858854358354e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.119406241442577</v>
+        <v>1163513410.435111</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.233858854358354e-16</v>
+        <v>1.03633619244634e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1163513410.435111</v>
+        <v>167.0353027216059</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.03633619244634e-07</v>
+        <v>0.0001491217698634976</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>167.0353027216059</v>
+        <v>10.1010796216464</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001491217698634976</v>
+        <v>1.176739124034943</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.1010796216464</v>
+        <v>0.0152151640184212</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.176739124034943</v>
+        <v>2.898543292243351</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0152151640184212</v>
+        <v>0.9569481670798571</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.898543292243351</v>
+        <v>1.325157910279557</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9569481670798571</v>
+        <v>98</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.325157910279557</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4409116852762539</v>
       </c>
     </row>
@@ -6761,72 +6731,66 @@
         <v>2.485953598554332e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2202037158374572</v>
+        <v>8.188681843753249e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.164206839222997</v>
+        <v>2.159110213648987e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.188681843753249e-07</v>
+        <v>-0.01886703557949835</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.159110213648987e-06</v>
+        <v>0.1228903519616944</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01886703557949835</v>
+        <v>0.01544725917591993</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1228903519616944</v>
+        <v>1.912990346214353</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01544725917591993</v>
+        <v>2.300005233435392</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.919485310999121</v>
+        <v>4.243145745127949</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.300005233435392</v>
+        <v>1.162944070473753e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.243145745127949</v>
+        <v>1210342272.995598</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.162944070473753e-16</v>
+        <v>9.951627286242071e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1210342272.995598</v>
+        <v>170.362981714918</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.951627286242071e-08</v>
+        <v>0.0001517512240813719</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>170.362981714918</v>
+        <v>9.296217802618051</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001517512240813719</v>
+        <v>1.249376401558184</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.296217802618051</v>
+        <v>0.01311429001426854</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.249376401558184</v>
+        <v>3.024748280099379</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01311429001426854</v>
+        <v>0.956839739035949</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.024748280099379</v>
+        <v>1.322097411135692</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.956839739035949</v>
+        <v>98</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.322097411135692</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4610616703204038</v>
       </c>
     </row>
@@ -6841,72 +6805,66 @@
         <v>2.531737785486811e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2195375727793119</v>
+        <v>8.283759561885078e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.194951710759564</v>
+        <v>2.153534487101391e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.283759561885078e-07</v>
+        <v>-0.02532883774474887</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.153534487101391e-06</v>
+        <v>0.1095095566458438</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02532883774474887</v>
+        <v>0.01262600754948087</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1095095566458438</v>
+        <v>1.907088990434497</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01262600754948087</v>
+        <v>2.292298203282976</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.918639871619044</v>
+        <v>4.312549392774494</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.292298203282976</v>
+        <v>1.125813787276173e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.312549392774494</v>
+        <v>1219187376.66854</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.125813787276173e-16</v>
+        <v>9.858874694253122e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1219187376.66854</v>
+        <v>167.3429719797486</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.858874694253122e-08</v>
+        <v>0.0001778714406608501</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>167.3429719797486</v>
+        <v>8.828421941674701</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001778714406608501</v>
+        <v>1.512251841623839</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.828421941674701</v>
+        <v>0.01386348400066215</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.512251841623839</v>
+        <v>3.001304296072338</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01386348400066215</v>
+        <v>0.9561127270507461</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.001304296072338</v>
+        <v>1.370482369666048</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9561127270507461</v>
+        <v>98</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.370482369666048</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4387501570389349</v>
       </c>
     </row>
@@ -6921,72 +6879,66 @@
         <v>2.576994358508548e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2379781224539913</v>
+        <v>8.372016460892595e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.217123864183537</v>
+        <v>2.146332098438105e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.372016460892595e-07</v>
+        <v>-0.03087383400443348</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.146332098438105e-06</v>
+        <v>0.0974496475505067</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03087383400443348</v>
+        <v>0.01044335398435571</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0974496475505067</v>
+        <v>1.907549362857994</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01044335398435571</v>
+        <v>2.498201671906169</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.922993588688333</v>
+        <v>4.268278538474188</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.498201671906169</v>
+        <v>1.149288925243161e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.268278538474188</v>
+        <v>1180885381.088727</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.149288925243161e-16</v>
+        <v>1.017519846343923e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1180885381.088727</v>
+        <v>160.2672238920337</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.017519846343923e-07</v>
+        <v>0.0001712922187378799</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>160.2672238920337</v>
+        <v>9.541935843508716</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001712922187378799</v>
+        <v>1.324917513414005</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.541935843508716</v>
+        <v>0.01559590636805971</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.324917513414005</v>
+        <v>2.961710533065657</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01559590636805971</v>
+        <v>0.9564494495932383</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.961710533065657</v>
+        <v>1.345834397719618</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9564494495932383</v>
+        <v>95</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.345834397719618</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4240414693289881</v>
       </c>
     </row>
@@ -7001,72 +6953,66 @@
         <v>2.61597124734485e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2725556648700332</v>
+        <v>8.450080468061908e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.217238368205029</v>
+        <v>2.137640240330572e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.450080468061908e-07</v>
+        <v>-0.03597480285789582</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.137640240330572e-06</v>
+        <v>0.08556936270629885</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03597480285789582</v>
+        <v>0.008610377808153361</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08556936270629885</v>
+        <v>1.907667734555683</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008610377808153361</v>
+        <v>2.466843837706193</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.922878990890046</v>
+        <v>4.147305588808706</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.466843837706193</v>
+        <v>1.217314102761231e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.147305588808706</v>
+        <v>1117612316.22054</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.217314102761231e-16</v>
+        <v>1.074265748834474e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1117612316.22054</v>
+        <v>152.0495053504188</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.074265748834474e-07</v>
+        <v>0.0001538490639520647</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>152.0495053504188</v>
+        <v>10.56469605080453</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001538490639520647</v>
+        <v>1.126017643944832</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.56469605080453</v>
+        <v>0.01717152521213591</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.126017643944832</v>
+        <v>2.870738247150144</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01717152521213591</v>
+        <v>0.9574657803844872</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.870738247150144</v>
+        <v>1.306695780861382</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9574657803844872</v>
+        <v>57</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.306695780861382</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.434051617836975</v>
       </c>
     </row>
@@ -7081,72 +7027,66 @@
         <v>2.643223045621384e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3186387108384359</v>
+        <v>8.51372784212244e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.187873293200843</v>
+        <v>2.127495468535886e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.51372784212244e-07</v>
+        <v>-0.04112784216401753</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.127495468535886e-06</v>
+        <v>0.0719881411066693</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04112784216401753</v>
+        <v>0.006867553195438972</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.0719881411066693</v>
+        <v>1.90312339385242</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.006867553195438972</v>
+        <v>2.431002791732581</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.917678294033532</v>
+        <v>3.96133062253451</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.431002791732581</v>
+        <v>1.334297108571883e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.96133062253451</v>
+        <v>1001265609.526253</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.334297108571883e-16</v>
+        <v>1.199349625261149e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1001265609.526253</v>
+        <v>133.7676644068513</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.199349625261149e-07</v>
+        <v>0.0001470645599299135</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>133.7676644068513</v>
+        <v>10.34077399849964</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001470645599299135</v>
+        <v>1.121484913946182</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.34077399849964</v>
+        <v>0.01572584970958902</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.121484913946182</v>
+        <v>2.889741720782996</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01572584970958902</v>
+        <v>0.9564207660019115</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.889741720782996</v>
+        <v>1.326456426929879</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9564207660019115</v>
+        <v>38</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.326456426929879</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.4541742290063686</v>
       </c>
     </row>
@@ -7161,72 +7101,66 @@
         <v>2.652421209913877e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3693052616272568</v>
+        <v>8.55783713495826e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.129725263513099</v>
+        <v>2.115874582795269e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.55783713495826e-07</v>
+        <v>-0.04658515751858434</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.115874582795269e-06</v>
+        <v>0.05440362634769163</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04658515751858434</v>
+        <v>0.005123730944707994</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05440362634769163</v>
+        <v>1.898545039417563</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005123730944707994</v>
+        <v>2.282723374556995</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.917446587763244</v>
+        <v>4.120392890231457</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.282723374556995</v>
+        <v>1.554853727656931e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.120392890231457</v>
+        <v>887058176.9949039</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.554853727656931e-16</v>
+        <v>1.351870070557181e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>887058176.9949039</v>
+        <v>122.3471187934066</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.351870070557181e-07</v>
+        <v>0.0001472387087205013</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>122.3471187934066</v>
+        <v>9.466854317791356</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001472387087205013</v>
+        <v>1.213463654654906</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.466854317791356</v>
+        <v>0.01319572900229476</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.213463654654906</v>
+        <v>3.067002246490811</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01319572900229476</v>
+        <v>0.9570834541584117</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.067002246490811</v>
+        <v>1.323150866105896</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9570834541584117</v>
+        <v>38</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.323150866105896</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.4945396812023694</v>
       </c>
     </row>
@@ -7241,72 +7175,66 @@
         <v>2.637731760526558e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4139576846333122</v>
+        <v>8.577785255152908e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.06006443565251</v>
+        <v>2.102857940148654e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.577785255152908e-07</v>
+        <v>-0.05144466462136656</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.102857940148654e-06</v>
+        <v>0.03632898891363499</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05144466462136656</v>
+        <v>0.003964102137679949</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03632898891363499</v>
+        <v>1.901001694579677</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003964102137679949</v>
+        <v>2.169083878051974</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.920977038765562</v>
+        <v>4.011347072132645</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.169083878051974</v>
+        <v>1.813544834787906e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.011347072132645</v>
+        <v>778575161.1095021</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.813544834787906e-16</v>
+        <v>1.544920890554031e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>778575161.1095021</v>
+        <v>109.9333304913761</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.544920890554031e-07</v>
+        <v>0.0001716866623578883</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>109.9333304913761</v>
+        <v>9.548988997546008</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001716866623578883</v>
+        <v>1.393746534313774</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.548988997546008</v>
+        <v>0.01565493770451474</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.393746534313774</v>
+        <v>3.063873060761627</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01565493770451474</v>
+        <v>0.9574553084901014</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.063873060761627</v>
+        <v>1.298120736266194</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9574553084901014</v>
+        <v>38</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.298120736266194</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5798272962707257</v>
       </c>
     </row>
@@ -7321,72 +7249,66 @@
         <v>2.600969626086112e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4454407208757005</v>
+        <v>8.578597570388679e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.005008417342326</v>
+        <v>2.088950500756285e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.578597570388679e-07</v>
+        <v>-0.05434239997377652</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.088950500756285e-06</v>
+        <v>0.02841293266184695</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05434239997377652</v>
+        <v>0.003760434060394025</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.02841293266184695</v>
+        <v>1.904517339273643</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003760434060394025</v>
+        <v>2.104162244710251</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.923136661626045</v>
+        <v>3.804994056447857</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.104162244710251</v>
+        <v>2.065906932107335e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.804994056447857</v>
+        <v>689212740.4114691</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.065906932107335e-16</v>
+        <v>1.74471186301363e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>689212740.4114691</v>
+        <v>98.13351318222529</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.74471186301363e-07</v>
+        <v>0.000207881511532632</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>98.13351318222529</v>
+        <v>11.42672340236185</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000207881511532632</v>
+        <v>1.210014794482566</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.42672340236185</v>
+        <v>0.02714309056443118</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.210014794482566</v>
+        <v>2.81088093870976</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02714309056443118</v>
+        <v>0.9568724719338385</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.81088093870976</v>
+        <v>1.3184419603944</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9568724719338385</v>
+        <v>38</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.3184419603944</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.7444740272717877</v>
       </c>
     </row>
@@ -7401,72 +7323,66 @@
         <v>2.548816616116515e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4651141605685407</v>
+        <v>8.578597570388679e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9745614681512702</v>
+        <v>2.074739574691048e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.578597570388679e-07</v>
+        <v>-0.05580912977134747</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.074739574691048e-06</v>
+        <v>0.02787728985929133</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05580912977134747</v>
+        <v>0.003892185431062934</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.02787728985929133</v>
+        <v>1.901731654620247</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003892185431062934</v>
+        <v>2.110171767781297</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.91874807447336</v>
+        <v>3.646555718308399</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.110171767781297</v>
+        <v>2.24932914575301e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.646555718308399</v>
+        <v>612760331.8232168</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.24932914575301e-16</v>
+        <v>1.962017766418054e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>612760331.8232168</v>
+        <v>84.45673654273905</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.962017766418054e-07</v>
+        <v>0.0002318489153150466</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>84.45673654273905</v>
+        <v>13.90558239292156</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002318489153150466</v>
+        <v>0.9761489630506441</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.90558239292156</v>
+        <v>0.04483151690762915</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.9761489630506441</v>
+        <v>2.430412232385163</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.04483151690762915</v>
+        <v>0.956346615630187</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.430412232385163</v>
+        <v>1.348914656728267</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.956346615630187</v>
+        <v>38</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.348914656728267</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.9651351849101208</v>
       </c>
     </row>
@@ -7481,72 +7397,66 @@
         <v>2.486347717706862e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4763058302754635</v>
+        <v>8.503277348989492e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9685219010176307</v>
+        <v>2.060598212451639e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.503277348989492e-07</v>
+        <v>-0.05634192576496011</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.060598212451639e-06</v>
+        <v>0.0300543644853226</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05634192576496011</v>
+        <v>0.00407781783419157</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0300543644853226</v>
+        <v>1.909949274538352</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.00407781783419157</v>
+        <v>2.074190393503865</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.933640011979806</v>
+        <v>3.665592515948537</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.074190393503865</v>
+        <v>2.226026591876117e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.665592515948537</v>
+        <v>617450122.8610189</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.226026591876117e-16</v>
+        <v>1.951272833610727e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>617450122.8610189</v>
+        <v>84.86607383067557</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.951272833610727e-07</v>
+        <v>0.000232928765072305</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>84.86607383067557</v>
+        <v>13.65409463576402</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000232928765072305</v>
+        <v>1.008726803545182</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.65409463576402</v>
+        <v>0.0434259113412158</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.008726803545182</v>
+        <v>2.532915486128609</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0434259113412158</v>
+        <v>0.9565037395462617</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.532915486128609</v>
+        <v>1.167077495925505</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9565037395462617</v>
+        <v>35</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.167077495925505</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.087970298818131</v>
       </c>
     </row>
@@ -7561,72 +7471,66 @@
         <v>2.418240336975683e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.4835134546909924</v>
+        <v>8.300866849661475e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9791883841665561</v>
+        <v>2.046794722962793e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.300866849661475e-07</v>
+        <v>-0.05611190306204317</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.046794722962793e-06</v>
+        <v>0.03247134641550069</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05611190306204317</v>
+        <v>0.004202632884743199</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.03247134641550069</v>
+        <v>1.91113168859776</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.004202632884743199</v>
+        <v>1.973366564117042</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.936864954152189</v>
+        <v>4.063672542987339</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.973366564117042</v>
+        <v>1.730059871013069e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.063672542987339</v>
+        <v>775732705.580434</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.730059871013069e-16</v>
+        <v>1.550411558130992e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>775732705.580434</v>
+        <v>104.1082956831849</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.550411558130992e-07</v>
+        <v>0.0002330901219475667</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>104.1082956831849</v>
+        <v>11.72128957668735</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002330901219475667</v>
+        <v>1.241295305841648</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.72128957668735</v>
+        <v>0.03202393236720005</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.241295305841648</v>
+        <v>2.74663107496292</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03202393236720005</v>
+        <v>0.9554927409385906</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.74663107496292</v>
+        <v>1.187977173513562</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9554927409385906</v>
+        <v>35</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.187977173513562</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.010984199649469</v>
       </c>
     </row>
@@ -7641,72 +7545,66 @@
         <v>2.348030673214372e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.4909154402119569</v>
+        <v>8.033150689532901e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9964678752480181</v>
+        <v>2.033499105640975e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.033150689532901e-07</v>
+        <v>-0.05539041318121549</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.033499105640975e-06</v>
+        <v>0.03447109800388039</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05539041318121549</v>
+        <v>0.004255725149670164</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03447109800388039</v>
+        <v>1.905915230692445</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004255725149670164</v>
+        <v>2.047249382305804</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.924290550514198</v>
+        <v>3.951424041450535</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.047249382305804</v>
+        <v>1.323638568327882e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.951424041450535</v>
+        <v>973198956.4529667</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.323638568327882e-16</v>
+        <v>1.226741482347306e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>973198956.4529667</v>
+        <v>125.3639542710623</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.226741482347306e-07</v>
+        <v>0.0001974097344568088</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>125.3639542710623</v>
+        <v>11.08270122912951</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001974097344568088</v>
+        <v>1.214749239998789</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.08270122912951</v>
+        <v>0.02424710066082754</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.214749239998789</v>
+        <v>2.917675889042354</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02424710066082754</v>
+        <v>0.9578083622330323</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.917675889042354</v>
+        <v>1.26066386663576</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9578083622330323</v>
+        <v>35</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.26066386663576</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.8867035857891916</v>
       </c>
     </row>
@@ -7721,72 +7619,66 @@
         <v>2.277302515006577e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5011364961437607</v>
+        <v>7.742934488013106e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.013224182763006</v>
+        <v>2.020810355740142e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.742934488013106e-07</v>
+        <v>-0.05425949298846351</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.020810355740142e-06</v>
+        <v>0.03663932602148639</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05425949298846351</v>
+        <v>0.004285650270285129</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03663932602148639</v>
+        <v>1.886748827852226</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004285650270285129</v>
+        <v>1.835095076707154</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.897234820415114</v>
+        <v>5.094389094725117</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.835095076707154</v>
+        <v>1.61535820009115e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.094389094725117</v>
+        <v>777191483.7349331</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.61535820009115e-16</v>
+        <v>1.530216539138115e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>777191483.7349331</v>
+        <v>97.5719325244056</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.530216539138115e-07</v>
+        <v>0.000156413869244228</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>97.5719325244056</v>
+        <v>10.95518977572896</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000156413869244228</v>
+        <v>1.08438120519094</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.95518977572896</v>
+        <v>0.01877219555843142</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.08438120519094</v>
+        <v>2.915225927796177</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01877219555843142</v>
+        <v>0.9583254194413401</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.915225927796177</v>
+        <v>1.377986157477922</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9583254194413401</v>
+        <v>35</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.377986157477922</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.8165395528860946</v>
       </c>
     </row>
@@ -7801,72 +7693,66 @@
         <v>2.206188119321589e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5156327895865919</v>
+        <v>7.452335586185465e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.024891239862124</v>
+        <v>2.008815688759247e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.452335586185465e-07</v>
+        <v>-0.05264794945345701</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.008815688759247e-06</v>
+        <v>0.03986291213969638</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05264794945345701</v>
+        <v>0.004359653597998433</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.03986291213969638</v>
+        <v>1.884012494479418</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004359653597998433</v>
+        <v>1.779187955591901</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.887290172903701</v>
+        <v>4.341447745821516</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.779187955591901</v>
+        <v>2.859129410437154e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.341447745821516</v>
+        <v>442985920.124438</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.859129410437154e-16</v>
+        <v>2.669063232078683e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>442985920.124438</v>
+        <v>56.10656212546083</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.669063232078683e-07</v>
+        <v>0.0001520886411733958</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>56.10656212546083</v>
+        <v>8.722401366468722</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001520886411733958</v>
+        <v>1.290500908943035</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.722401366468722</v>
+        <v>0.01157094725664954</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.290500908943035</v>
+        <v>3.027738719506293</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01157094725664954</v>
+        <v>0.9597985189524052</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.027738719506293</v>
+        <v>1.418348994082106</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9597985189524052</v>
+        <v>31</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.418348994082106</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5046118978345911</v>
       </c>
     </row>
@@ -7881,72 +7767,66 @@
         <v>2.134139748912913e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5347565049995084</v>
+        <v>7.171473932421696e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.028235631709112</v>
+        <v>1.99760948496937e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.171473932421696e-07</v>
+        <v>-0.05051194243292694</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.99760948496937e-06</v>
+        <v>0.04470991029155543</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05051194243292694</v>
+        <v>0.004548764470433014</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04470991029155543</v>
+        <v>1.873612535319254</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004548764470433014</v>
+        <v>1.772398721939183</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.877800616327023</v>
+        <v>3.775144273543884</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.772398721939183</v>
+        <v>4.003935396668215e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.775144273543884</v>
+        <v>309999852.1098913</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.003935396668215e-16</v>
+        <v>3.839510563004273e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>309999852.1098913</v>
+        <v>38.47778244915897</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.839510563004273e-07</v>
+        <v>0.000175807481321892</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>38.47778244915897</v>
+        <v>8.996398804654557</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.000175807481321892</v>
+        <v>1.373092940892759</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.996398804654557</v>
+        <v>0.0142290121595498</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.373092940892759</v>
+        <v>2.799656060590082</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0142290121595498</v>
+        <v>0.9604847483009255</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.799656060590082</v>
+        <v>1.417038722494729</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9604847483009255</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.417038722494729</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.318720670818237</v>
       </c>
     </row>
@@ -7961,72 +7841,66 @@
         <v>2.060631692767745e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5574756630975151</v>
+        <v>6.90417688038411e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.02083889284003</v>
+        <v>1.987287416647367e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.90417688038411e-07</v>
+        <v>-0.04775401561371061</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.987287416647367e-06</v>
+        <v>0.0516479735259892</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04775401561371061</v>
+        <v>0.004945413679170522</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.0516479735259892</v>
+        <v>1.851813177904952</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004945413679170522</v>
+        <v>1.640576909137347</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.849777129884661</v>
+        <v>4.236951474826719</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.640576909137347</v>
+        <v>6.398788633485108e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.236951474826719</v>
+        <v>193970232.8729354</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.398788633485108e-16</v>
+        <v>6.12160391342134e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>193970232.8729354</v>
+        <v>24.07509109406228</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.12160391342134e-07</v>
+        <v>0.0001942775135338144</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>24.07509109406228</v>
+        <v>10.03910606552193</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001942775135338144</v>
+        <v>1.254253893938285</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.03910606552193</v>
+        <v>0.01957999704241833</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.254253893938285</v>
+        <v>2.582362783903426</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01957999704241833</v>
+        <v>0.9577596089652024</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.582362783903426</v>
+        <v>1.462832217412444</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9577596089652024</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.462832217412444</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.239379125467082</v>
       </c>
     </row>
@@ -8041,72 +7915,66 @@
         <v>1.985424364888739e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.5809142637181026</v>
+        <v>6.650059015480522e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.00138043895792</v>
+        <v>1.977975489642926e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.650059015480522e-07</v>
+        <v>-0.04407536487347207</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.977975489642926e-06</v>
+        <v>0.06159474043209944</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04407536487347207</v>
+        <v>0.005732349681847692</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.06159474043209944</v>
+        <v>1.852968088634727</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005732349681847692</v>
+        <v>1.602427071621327</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.842372196807071</v>
+        <v>3.743933868049834</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.602427071621327</v>
+        <v>1.022113784062319e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.743933868049834</v>
+        <v>122196509.5477472</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.022113784062319e-15</v>
+        <v>9.74637572499438e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>122196509.5477472</v>
+        <v>15.26218968059021</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.74637572499438e-07</v>
+        <v>0.0002065312453610328</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>15.26218968059021</v>
+        <v>11.47508187880599</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002065312453610328</v>
+        <v>1.128072434681832</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.47508187880599</v>
+        <v>0.02719551891303108</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.128072434681832</v>
+        <v>2.442859972193896</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02719551891303108</v>
+        <v>0.9584966236910136</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.442859972193896</v>
+        <v>1.509517803150714</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9584966236910136</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.509517803150714</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2092347261130389</v>
       </c>
     </row>
@@ -8121,72 +7989,66 @@
         <v>1.909215148014378e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.5994754162252075</v>
+        <v>6.406194110038856e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9717929715858609</v>
+        <v>1.969843218841445e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.406194110038856e-07</v>
+        <v>-0.03913356595694404</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.969843218841445e-06</v>
+        <v>0.07524996506378652</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03913356595694404</v>
+        <v>0.00718679679399432</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.07524996506378652</v>
+        <v>1.833394969455902</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.00718679679399432</v>
+        <v>1.498776518145429</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.805456195704001</v>
+        <v>4.221855138076</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.498776518145429</v>
+        <v>1.665955560985315e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.221855138076</v>
+        <v>76300681.24669148</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.665955560985315e-15</v>
+        <v>1.557906258004592e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>76300681.24669148</v>
+        <v>9.698850020422336</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.557906258004592e-06</v>
+        <v>0.0002155528012081672</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9.698850020422336</v>
+        <v>13.22187411508929</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002155528012081672</v>
+        <v>1.026772952263648</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>13.22187411508929</v>
+        <v>0.03768249992657973</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.026772952263648</v>
+        <v>2.376179265425973</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03768249992657973</v>
+        <v>0.9568548545981425</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.376179265425973</v>
+        <v>1.540334571187902</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9568548545981425</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.540334571187902</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2009477811743381</v>
       </c>
     </row>
@@ -8201,72 +8063,66 @@
         <v>1.834476982480687e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.6038696460287036</v>
+        <v>6.173012253556157e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9439402196087641</v>
+        <v>1.963112429753396e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.173012253556157e-07</v>
+        <v>-0.03235035242185348</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.963112429753396e-06</v>
+        <v>0.09402611536183619</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03235035242185348</v>
+        <v>0.009874883934251065</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.09402611536183619</v>
+        <v>1.818393408891493</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.009874883934251065</v>
+        <v>1.479219150839262</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.780589092396697</v>
+        <v>3.624138063840493</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.479219150839262</v>
+        <v>2.694224874520949e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.624138063840493</v>
+        <v>46591308.12374038</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.694224874520949e-15</v>
+        <v>2.542111887302063e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>46591308.12374038</v>
+        <v>5.84848862664817</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.542111887302063e-06</v>
+        <v>0.0002231759318455053</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>5.84848862664817</v>
+        <v>14.08781203411336</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002231759318455053</v>
+        <v>1.009416775651037</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>14.08781203411336</v>
+        <v>0.04429293445204897</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.009416775651037</v>
+        <v>2.379592999699539</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.04429293445204897</v>
+        <v>0.9561495832897269</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.379592999699539</v>
+        <v>1.611468711838865</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9561495832897269</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.611468711838865</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1874643502835494</v>
       </c>
     </row>
@@ -8281,72 +8137,66 @@
         <v>1.766973360252547e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.583836252149177</v>
+        <v>5.946172995300149e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.94666381668479</v>
+        <v>1.95805707460947e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.946172995300149e-07</v>
+        <v>-0.02337036068316713</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.95805707460947e-06</v>
+        <v>0.1173023312631162</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02337036068316713</v>
+        <v>0.01428758844581374</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1173023312631162</v>
+        <v>1.76280358832976</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01428758844581374</v>
+        <v>1.501730966879544</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.712499440851327</v>
+        <v>3.417430790659736</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.501730966879544</v>
+        <v>3.030008546137815e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.417430790659736</v>
+        <v>43884466.33543365</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.030008546137815e-15</v>
+        <v>2.632003553636079e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>43884466.33543365</v>
+        <v>5.835331006752423</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.632003553636079e-06</v>
+        <v>0.0002172366271128135</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>5.835331006752423</v>
+        <v>13.5026404503316</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002172366271128135</v>
+        <v>1.003214235559591</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>13.5026404503316</v>
+        <v>0.03960686407402983</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.003214235559591</v>
+        <v>2.351336456716565</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03960686407402983</v>
+        <v>0.9575354680611216</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.351336456716565</v>
+        <v>1.641167300928451</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9575354680611216</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.641167300928451</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1678968390386542</v>
       </c>
     </row>
@@ -8361,72 +8211,66 @@
         <v>1.716301656096437e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.5423049151895533</v>
+        <v>5.728154159098677e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.004846701605957</v>
+        <v>1.954876628199454e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.728154159098677e-07</v>
+        <v>-0.01296416180368538</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.954876628199454e-06</v>
+        <v>0.139873371096582</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.01296416180368538</v>
+        <v>0.01971294885362833</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.139873371096582</v>
+        <v>1.686320684052572</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01971294885362833</v>
+        <v>1.506942214468815</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.613862589568454</v>
+        <v>3.767726493070464</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.506942214468815</v>
+        <v>3.199626308721766e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.767726493070464</v>
+        <v>41435396.88056485</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.199626308721766e-15</v>
+        <v>2.688989020780536e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>41435396.88056485</v>
+        <v>5.493413179270843</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.688989020780536e-06</v>
+        <v>0.0002096692353087926</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>5.493413179270843</v>
+        <v>11.18486313415927</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002096692353087926</v>
+        <v>1.208162558733326</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.18486313415927</v>
+        <v>0.0262298652516153</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.208162558733326</v>
+        <v>2.521771363637433</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.0262298652516153</v>
+        <v>0.9535081932960735</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.521771363637433</v>
+        <v>1.817037829781355</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9535081932960735</v>
+        <v>1</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.817037829781355</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1485036927860658</v>
       </c>
     </row>
@@ -8441,72 +8285,66 @@
         <v>1.692635086073449e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.5096896070665202</v>
+        <v>5.52747238860378e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.072299662166313</v>
+        <v>1.953583696120415e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.52747238860378e-07</v>
+        <v>-0.002082937636365209</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.953583696120415e-06</v>
+        <v>0.1581262784206072</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.002082937636365209</v>
+        <v>0.0249874924559804</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1581262784206072</v>
+        <v>1.65273752069656</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0249874924559804</v>
+        <v>1.513317355893467</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.578915621658056</v>
+        <v>3.722397310975545</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.513317355893467</v>
+        <v>3.278027143440557e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.722397310975545</v>
+        <v>40902592.38552666</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.278027143440557e-15</v>
+        <v>2.675149276982504e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>40902592.38552666</v>
+        <v>5.484211736896689</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.675149276982504e-06</v>
+        <v>0.0001891276325686594</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>5.484211736896689</v>
+        <v>9.585187954472119</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001891276325686594</v>
+        <v>1.389888022827003</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.585187954472119</v>
+        <v>0.01737625786310434</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.389888022827003</v>
+        <v>2.722661140154453</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01737625786310434</v>
+        <v>0.952729361194287</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.722661140154453</v>
+        <v>1.780926341623794</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.952729361194287</v>
+        <v>2</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.780926341623794</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1457788576042866</v>
       </c>
     </row>
@@ -8521,72 +8359,66 @@
         <v>1.705583977634997e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.5365852675259078</v>
+        <v>6.291617729300946e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9965038994266244</v>
+        <v>1.954178995995788e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.291617729300946e-07</v>
+        <v>0.009208172387475899</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.954178995995788e-06</v>
+        <v>0.1728119338788385</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.009208172387475899</v>
+        <v>0.02992486030485397</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1728119338788385</v>
+        <v>1.600413481850103</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02992486030485397</v>
+        <v>1.519184366990054</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.524181298474635</v>
+        <v>3.750285008470984</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.519184366990054</v>
+        <v>3.229456576095572e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.750285008470984</v>
+        <v>43148326.41954021</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.229456576095572e-15</v>
+        <v>2.458086996137067e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>43148326.41954021</v>
+        <v>6.012531440457727</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.458086996137067e-06</v>
+        <v>0.0001517200177827173</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6.012531440457727</v>
+        <v>9.005837782993556</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001517200177827173</v>
+        <v>1.254614015168216</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.005837782993556</v>
+        <v>0.01230526936468704</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.254614015168216</v>
+        <v>2.851926527415007</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01230526936468704</v>
+        <v>0.9524259262006374</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.851926527415007</v>
+        <v>1.814648957992818</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9524259262006374</v>
+        <v>2</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.814648957992818</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1645821261839307</v>
       </c>
     </row>
@@ -8601,72 +8433,66 @@
         <v>1.763816723358797e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.6670068637101506</v>
+        <v>7.27597307448722e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.5875786693253104</v>
+        <v>1.956706640116235e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.27597307448722e-07</v>
+        <v>0.01954889043850938</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.956706640116235e-06</v>
+        <v>0.180850669950265</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.01954889043850938</v>
+        <v>0.03307227775538073</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.180850669950265</v>
+        <v>1.465536372477751</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03307227775538073</v>
+        <v>1.376419122825209</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.390762573772656</v>
+        <v>5.769179697090965</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.376419122825209</v>
+        <v>6.493999080275626e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.769179697090965</v>
+        <v>25593902.6770623</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6.493999080275626e-15</v>
+        <v>3.557169880496275e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>25593902.6770623</v>
+        <v>4.253880162990153</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.557169880496275e-06</v>
+        <v>0.0001432952204738666</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>4.253880162990153</v>
+        <v>8.661825861570875</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001432952204738666</v>
+        <v>1.296235452899456</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.661825861570875</v>
+        <v>0.01075104307121692</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.296235452899456</v>
+        <v>2.936724537039891</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01075104307121692</v>
+        <v>0.9420982338483441</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.936724537039891</v>
+        <v>1.88578557931562</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9420982338483441</v>
+        <v>3</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.88578557931562</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1646447916494118</v>
       </c>
     </row>
@@ -8681,72 +8507,66 @@
         <v>1.863948436887173e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.8742996749145956</v>
+        <v>8.02129212722751e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.08771366927250757</v>
+        <v>1.960918775699766e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>8.02129212722751e-07</v>
+        <v>0.02632804339522772</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.960918775699766e-06</v>
+        <v>0.1776022795658815</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.02632804339522772</v>
+        <v>0.03222846169735412</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1776022795658815</v>
+        <v>1.443988532082949</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03222846169735412</v>
+        <v>1.376731883167017</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.371721032207492</v>
+        <v>4.207978222798173</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.376731883167017</v>
+        <v>1.362611094863117e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.207978222798173</v>
+        <v>12576665.20260915</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.362611094863117e-14</v>
+        <v>7.177725729489898e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>12576665.20260915</v>
+        <v>2.155276137833159</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>7.177725729489898e-06</v>
+        <v>0.000139286329726635</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2.155276137833159</v>
+        <v>9.837403053754633</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.000139286329726635</v>
+        <v>1.499090870686284</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.837403053754633</v>
+        <v>0.01347936475483959</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.499090870686284</v>
+        <v>3.07485894794076</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01347936475483959</v>
+        <v>0.9415792794824472</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.07485894794076</v>
+        <v>1.93622355140749</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9415792794824472</v>
+        <v>3</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.93622355140749</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1685618693550784</v>
       </c>
     </row>
@@ -8761,72 +8581,66 @@
         <v>1.991595935625643e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.078159915755811</v>
+        <v>8.524165314325393e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.7045607768790783</v>
+        <v>1.966394882915502e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>8.524165314325393e-07</v>
+        <v>0.03010386243561826</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.966394882915502e-06</v>
+        <v>0.1682506071067336</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.03010386243561826</v>
+        <v>0.0292116189124002</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1682506071067336</v>
+        <v>1.427408190292639</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.0292116189124002</v>
+        <v>1.376539706863133</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.3554355754758</v>
+        <v>3.698922905062412</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.376539706863133</v>
+        <v>1.763471026732662e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.698922905062412</v>
+        <v>9874088.449788725</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.763471026732662e-14</v>
+        <v>9.079252796912561e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9874088.449788725</v>
+        <v>1.719342328318941</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.079252796912561e-06</v>
+        <v>0.0001379401722198933</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1.719342328318941</v>
+        <v>12.87333990386684</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001379401722198933</v>
+        <v>1.277231397598581</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>12.87333990386684</v>
+        <v>0.0228598426466676</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.277231397598581</v>
+        <v>3.011791152464444</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0228598426466676</v>
+        <v>0.9399334552443536</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.011791152464444</v>
+        <v>1.949620839374321</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9399334552443536</v>
+        <v>3</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.949620839374321</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.187638060248882</v>
       </c>
     </row>
@@ -8841,72 +8655,66 @@
         <v>2.132609454218131e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.227353957859568</v>
+        <v>8.805326464345983e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1.062541572255284</v>
+        <v>1.97278867488773e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>8.805326464345983e-07</v>
+        <v>0.03155934404473714</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.97278867488773e-06</v>
+        <v>0.1571336450268942</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.03155934404473714</v>
+        <v>0.0256862975556521</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1571336450268942</v>
+        <v>1.421885813806688</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.0256862975556521</v>
+        <v>1.368760913121128</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.348991637539492</v>
+        <v>3.356152078246829</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.368760913121128</v>
+        <v>2.142079693236017e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.356152078246829</v>
+        <v>8443015.142211739</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.142079693236017e-14</v>
+        <v>1.083772788605738e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>8443015.142211739</v>
+        <v>1.526970899422997</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.083772788605738e-05</v>
+        <v>0.0001187693322002376</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1.526970899422997</v>
+        <v>10.99243333999277</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001187693322002376</v>
+        <v>1.253658564184482</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.99243333999277</v>
+        <v>0.01435132487885591</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.253658564184482</v>
+        <v>3.068108058502021</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01435132487885591</v>
+        <v>0.9376171567233588</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.068108058502021</v>
+        <v>1.917865080214417</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9376171567233588</v>
+        <v>3</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.917865080214417</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1899348487798016</v>
       </c>
     </row>
@@ -8921,72 +8729,66 @@
         <v>2.274462310371518e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.309332897340068</v>
+        <v>8.90067454869735e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1.144669341572711</v>
+        <v>1.979748458314302e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>8.90067454869735e-07</v>
+        <v>0.03140837232389999</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.979748458314302e-06</v>
+        <v>0.1468165235418627</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.03140837232389999</v>
+        <v>0.02254141942548742</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1468165235418627</v>
+        <v>1.414401894073335</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02254141942548742</v>
+        <v>1.360346379847093</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.339673215876219</v>
+        <v>3.256616485865981</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.360346379847093</v>
+        <v>2.27502227815479e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.256616485865981</v>
+        <v>8200505.566775325</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.27502227815479e-14</v>
+        <v>1.113473087877637e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>8200505.566775325</v>
+        <v>1.529913614457208</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.113473087877637e-05</v>
+        <v>0.0001211807987691593</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1.529913614457208</v>
+        <v>9.3784619417578</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001211807987691593</v>
+        <v>1.17460891461002</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.3784619417578</v>
+        <v>0.01065852361044312</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.17460891461002</v>
+        <v>3.017472288306037</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01065852361044312</v>
+        <v>0.9367125255643766</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.017472288306037</v>
+        <v>1.927557260208699</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9367125255643766</v>
+        <v>3</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.927557260208699</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.185957657223223</v>
       </c>
     </row>
@@ -9363,7 +9165,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.964184760198957</v>
+        <v>2.053413330878636</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.154359447188607</v>
@@ -9452,7 +9254,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.969095433697063</v>
+        <v>2.05788556200555</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.996420837387791</v>
@@ -9541,7 +9343,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.986710865454829</v>
+        <v>2.072303964577251</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.622097364371049</v>
@@ -9630,7 +9432,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.008627379978142</v>
+        <v>2.090600191739907</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.638620290176808</v>
@@ -9719,7 +9521,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.029719695309673</v>
+        <v>2.105435237297876</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.052368039380323</v>
@@ -9808,7 +9610,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.010687689108614</v>
+        <v>2.090877758017327</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.584410988185699</v>
@@ -9897,7 +9699,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.025418537537214</v>
+        <v>2.104281145392839</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.793934834217134</v>
@@ -9986,7 +9788,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.027114875757288</v>
+        <v>2.104723855880057</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.173055435258685</v>
@@ -10075,7 +9877,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.026930736435733</v>
+        <v>2.105211578324522</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.894277895515577</v>
@@ -10164,7 +9966,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.029257265547503</v>
+        <v>2.105588651241423</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.614938573078103</v>
@@ -10253,7 +10055,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.033532943470304</v>
+        <v>2.110236047364544</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.652298613958822</v>
@@ -10342,7 +10144,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.03214386054591</v>
+        <v>2.10961509109748</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.605128017929093</v>
@@ -10431,7 +10233,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.052488154292719</v>
+        <v>2.124303241916479</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.480881812369623</v>
@@ -10520,7 +10322,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.052647272198027</v>
+        <v>2.123446881013817</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.879089311759999</v>
@@ -10609,7 +10411,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.053253034126695</v>
+        <v>2.123077164183556</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.262397622188293</v>
@@ -10698,7 +10500,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.059188532733929</v>
+        <v>2.127971371505475</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.562545672372798</v>
@@ -10787,7 +10589,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.07882278307156</v>
+        <v>2.141547785062316</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.521813204149336</v>
@@ -10876,7 +10678,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.053886190224216</v>
+        <v>2.123260019458155</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.965555955688552</v>
@@ -10965,7 +10767,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.06998478269585</v>
+        <v>2.135815509490957</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.329238089789359</v>
@@ -11054,7 +10856,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.045199722182511</v>
+        <v>2.118577663914663</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.939854191645472</v>
@@ -11143,7 +10945,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.047939794991979</v>
+        <v>2.12065252594167</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.010809913088091</v>
@@ -11232,7 +11034,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.047669900387847</v>
+        <v>2.120983909418781</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.457119398222758</v>
@@ -11321,7 +11123,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.068990716705559</v>
+        <v>2.137847917186507</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.479390496401909</v>
@@ -11410,7 +11212,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.047685154153738</v>
+        <v>2.122264418883431</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.48274900948155</v>
@@ -11499,7 +11301,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.026075876018556</v>
+        <v>2.10651755543895</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.92334031463525</v>
@@ -11588,7 +11390,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.044579570832459</v>
+        <v>2.120737936538872</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.779026512829466</v>
@@ -11677,7 +11479,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.036440654401238</v>
+        <v>2.112472144917587</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.937608704409654</v>
@@ -11766,7 +11568,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.007286993329471</v>
+        <v>2.093912243651521</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.363308467831509</v>
@@ -11855,7 +11657,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.990035864746065</v>
+        <v>2.08046278529772</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.515992828750097</v>
@@ -11944,7 +11746,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.007232052865684</v>
+        <v>2.0938010214932</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.177163469769737</v>
@@ -12033,7 +11835,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.991414403445915</v>
+        <v>2.080489286458266</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.893898586233143</v>
@@ -12122,7 +11924,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.988465139961235</v>
+        <v>2.080112262502142</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.948691446320515</v>
@@ -12211,7 +12013,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.991798196482932</v>
+        <v>2.081900505630397</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.135331776088042</v>
@@ -12300,7 +12102,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.994197763558609</v>
+        <v>2.082901711770014</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.375846226072537</v>
@@ -12389,7 +12191,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.014956578398269</v>
+        <v>2.099093078425508</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.392268530835874</v>
@@ -12478,7 +12280,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.014635747232299</v>
+        <v>2.098010341564704</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.216666043218924</v>
@@ -12567,7 +12369,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.00120912893083</v>
+        <v>2.087261816050177</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.918547050063208</v>
@@ -12656,7 +12458,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.000506014638133</v>
+        <v>2.086057895021875</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.580207762255912</v>
@@ -12745,7 +12547,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.002683497402173</v>
+        <v>2.08695887096932</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.298781290065469</v>
@@ -12834,7 +12636,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.022331557372869</v>
+        <v>2.103125363680232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.237870074237534</v>
@@ -12923,7 +12725,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.020533886170619</v>
+        <v>2.101606971859285</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.615340556563614</v>
@@ -13012,7 +12814,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.016387284568677</v>
+        <v>2.098242621609665</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.228209064721944</v>
@@ -13101,7 +12903,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.027470234127398</v>
+        <v>2.103574534290081</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.726614036687632</v>
@@ -13190,7 +12992,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.034994964069543</v>
+        <v>2.111386277230137</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.967673487250164</v>
@@ -13279,7 +13081,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.025338551799724</v>
+        <v>2.101412210637201</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.906906822563246</v>
@@ -13368,7 +13170,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.032015654920837</v>
+        <v>2.109743946404043</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.786657160157221</v>
@@ -13457,7 +13259,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.013107395856092</v>
+        <v>2.094917769268657</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.667091222074807</v>
@@ -13546,7 +13348,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.020486323227568</v>
+        <v>2.099920572865075</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.640851172245898</v>
@@ -13635,7 +13437,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.013982329729747</v>
+        <v>2.093576817288941</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.102848195079131</v>
@@ -13724,7 +13526,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.989955074882475</v>
+        <v>2.072784920158912</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.977428440588183</v>
@@ -13813,7 +13615,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.980833176732518</v>
+        <v>2.064542548710597</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.465581121492929</v>
@@ -13902,7 +13704,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.986794011210135</v>
+        <v>2.069445253419226</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.752727730504317</v>
@@ -13991,7 +13793,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.961072532743919</v>
+        <v>2.046971894605693</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.604494055842971</v>
@@ -14080,7 +13882,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.947963710914059</v>
+        <v>2.035318147198968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.439588851401086</v>
@@ -14169,7 +13971,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.938506347612907</v>
+        <v>2.026228823842537</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.665231614347026</v>
@@ -14258,7 +14060,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.90529658105445</v>
+        <v>1.997526769468934</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.914941407781784</v>
@@ -14347,7 +14149,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.888353197472561</v>
+        <v>1.980394033777458</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.696270715543763</v>
@@ -14436,7 +14238,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.879159877588472</v>
+        <v>1.968951779243354</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.685531814676756</v>
@@ -14525,7 +14327,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.866859047978725</v>
+        <v>1.960079009129189</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.534143816327207</v>
@@ -14614,7 +14416,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.873982590200567</v>
+        <v>1.964867596295308</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.625036674421394</v>
@@ -14703,7 +14505,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.839048906178883</v>
+        <v>1.930365445780515</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.225880297659358</v>
@@ -14792,7 +14594,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.827992239002131</v>
+        <v>1.916855452965065</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.280707034711346</v>
@@ -14881,7 +14683,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.819307932183083</v>
+        <v>1.912356350314916</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.336335027060568</v>
@@ -14970,7 +14772,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.800741556813638</v>
+        <v>1.89031116708547</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.659482165447916</v>
@@ -15059,7 +14861,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.797816078778809</v>
+        <v>1.888978847792597</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.240098425806396</v>
@@ -15148,7 +14950,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.785428529398885</v>
+        <v>1.87507095910346</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.00391961457308</v>
@@ -15237,7 +15039,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.778282887827218</v>
+        <v>1.866525114599878</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.783780694001938</v>
@@ -15326,7 +15128,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.750265680375519</v>
+        <v>1.83791946581939</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.011833248535729</v>
@@ -15415,7 +15217,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.756786611942386</v>
+        <v>1.841796612594633</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.866425391840527</v>
@@ -15504,7 +15306,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.731683313246976</v>
+        <v>1.811299122208548</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.873384927141305</v>
@@ -15593,7 +15395,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.695133212139432</v>
+        <v>1.771566769354259</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.832110805342789</v>
@@ -15682,7 +15484,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.693342036543802</v>
+        <v>1.754008799115328</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.861101180501405</v>
@@ -15771,7 +15573,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.666174442965291</v>
+        <v>1.73416294436069</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.483090985220722</v>
@@ -15860,7 +15662,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.613634715384103</v>
+        <v>1.675895653780385</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.544018810417839</v>
@@ -15949,7 +15751,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.592391868685673</v>
+        <v>1.651444798814607</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.511692744454415</v>
@@ -16038,7 +15840,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.582326048202187</v>
+        <v>1.633419493129553</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.548361580334049</v>
@@ -16324,7 +16126,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.062684870473627</v>
+        <v>2.131005750176531</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.769233116813829</v>
@@ -16413,7 +16215,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.064132961227569</v>
+        <v>2.132744788166527</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.600294852370377</v>
@@ -16502,7 +16304,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.072612193003169</v>
+        <v>2.138464696392231</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.328413337623621</v>
@@ -16591,7 +16393,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.096248374652706</v>
+        <v>2.159469216583046</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.035171580784509</v>
@@ -16680,7 +16482,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.091182349898366</v>
+        <v>2.1567896853213</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.81951040770632</v>
@@ -16769,7 +16571,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.08976352534187</v>
+        <v>2.156054329296733</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.044328734130277</v>
@@ -16858,7 +16660,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.094207697682643</v>
+        <v>2.160001211835542</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.422265045277404</v>
@@ -16947,7 +16749,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.104965631757103</v>
+        <v>2.165654730616162</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.982251192864909</v>
@@ -17036,7 +16838,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.085378508841449</v>
+        <v>2.153128741122143</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.612126796564888</v>
@@ -17125,7 +16927,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.085036962729172</v>
+        <v>2.152582872718277</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.32234159836471</v>
@@ -17214,7 +17016,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.09139795454514</v>
+        <v>2.15805258103185</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.587159541469759</v>
@@ -17303,7 +17105,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.085030596706538</v>
+        <v>2.151686796078192</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.268594603731591</v>
@@ -17392,7 +17194,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.090000538980551</v>
+        <v>2.154460265199997</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.778577581964013</v>
@@ -17481,7 +17283,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.091564833244371</v>
+        <v>2.155395533259323</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.373978042839861</v>
@@ -17570,7 +17372,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.095362324184363</v>
+        <v>2.158036562201067</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.568537706409982</v>
@@ -17659,7 +17461,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.074329958146779</v>
+        <v>2.14271772377877</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.507884709870561</v>
@@ -17748,7 +17550,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.074500352295816</v>
+        <v>2.143956147091862</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.998888211288496</v>
@@ -17837,7 +17639,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.067384205429666</v>
+        <v>2.139202388793418</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.138892139845541</v>
@@ -17926,7 +17728,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.0357840455658</v>
+        <v>2.114097683557437</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.228216267754626</v>
@@ -18015,7 +17817,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.043385620098583</v>
+        <v>2.1192841939361</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.911617654139802</v>
@@ -18104,7 +17906,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.04570223829681</v>
+        <v>2.119929884024731</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.253119875283097</v>
@@ -18193,7 +17995,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.031497454858271</v>
+        <v>2.10847292193127</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.256351374693915</v>
@@ -18282,7 +18084,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.040660731225971</v>
+        <v>2.11338511617756</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.288396489581913</v>
@@ -18371,7 +18173,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.037703619926535</v>
+        <v>2.113554128886475</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.10655065109735</v>
@@ -18460,7 +18262,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.034530118693428</v>
+        <v>2.112284887279997</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.142115169131872</v>
@@ -18549,7 +18351,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.025019179835058</v>
+        <v>2.103654125842853</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.134275857414005</v>
@@ -18638,7 +18440,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.04374238995774</v>
+        <v>2.118788135713627</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.228766981613721</v>
@@ -18727,7 +18529,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.035013953825724</v>
+        <v>2.114539537505405</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.964175364610212</v>
@@ -18816,7 +18618,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.012134184677054</v>
+        <v>2.097399493562736</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.090185421150704</v>
@@ -18905,7 +18707,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.013564208909935</v>
+        <v>2.098061392792683</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.369483311218535</v>
@@ -18994,7 +18796,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.015277972531786</v>
+        <v>2.0947775612834</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.132282407906883</v>
@@ -19083,7 +18885,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.012841826603187</v>
+        <v>2.093724594890623</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.88523150736204</v>
@@ -19172,7 +18974,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.015314625503949</v>
+        <v>2.09502057529829</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.2657558124025</v>
@@ -19261,7 +19063,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.032048313200717</v>
+        <v>2.107776116333214</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.153173061879203</v>
@@ -19350,7 +19152,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.037050793049546</v>
+        <v>2.113684719170193</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.284538651520695</v>
@@ -19439,7 +19241,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.04273371175241</v>
+        <v>2.120457536466064</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.24146106568575</v>
@@ -19528,7 +19330,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.044106998786109</v>
+        <v>2.120891949496045</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.092103393548427</v>
@@ -19617,7 +19419,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.041292475219671</v>
+        <v>2.118227738458093</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.657291599496276</v>
@@ -19706,7 +19508,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.02859943300779</v>
+        <v>2.107992756781407</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.051016337917988</v>
@@ -19795,7 +19597,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.029155114847421</v>
+        <v>2.107998107263819</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.252515869746738</v>
@@ -19884,7 +19686,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.041243755819755</v>
+        <v>2.117644852954887</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.379273782678327</v>
@@ -19973,7 +19775,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.021804430783423</v>
+        <v>2.101678240863456</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.23128566568823</v>
@@ -20062,7 +19864,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.028778666921852</v>
+        <v>2.105741969698672</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.013658446387319</v>
@@ -20151,7 +19953,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.045652420132039</v>
+        <v>2.118759611678362</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.916423455899202</v>
@@ -20240,7 +20042,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.044557504401212</v>
+        <v>2.114512815018082</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.876916310580857</v>
@@ -20329,7 +20131,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.06144392364866</v>
+        <v>2.132142333502178</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.987606070777449</v>
@@ -20418,7 +20220,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.055319908402536</v>
+        <v>2.127760752345888</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.71598558242615</v>
@@ -20507,7 +20309,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.040558578264111</v>
+        <v>2.111317858072707</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.434640673065727</v>
@@ -20596,7 +20398,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.039478410086037</v>
+        <v>2.114947217157922</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.037039758348519</v>
@@ -20685,7 +20487,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.021208040848535</v>
+        <v>2.100180657330557</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.271553951289814</v>
@@ -20774,7 +20576,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.014807854200861</v>
+        <v>2.09464737594959</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.295821714811605</v>
@@ -20863,7 +20665,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.997441934740186</v>
+        <v>2.081447245624328</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.767079195324968</v>
@@ -20952,7 +20754,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.977189608314851</v>
+        <v>2.06559210241786</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.581699037375192</v>
@@ -21041,7 +20843,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.985360263445969</v>
+        <v>2.07166386920777</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.548317571097195</v>
@@ -21130,7 +20932,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.957700741997107</v>
+        <v>2.049118606461669</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.88113685488538</v>
@@ -21219,7 +21021,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.939768716479704</v>
+        <v>2.034837690675348</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.943291644411549</v>
@@ -21308,7 +21110,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.94457717227568</v>
+        <v>2.0391205957509</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.016870207654557</v>
@@ -21397,7 +21199,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.936216578478443</v>
+        <v>2.031184846610902</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.989476008405585</v>
@@ -21486,7 +21288,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.893263329680805</v>
+        <v>1.993917979986184</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.783284200877881</v>
@@ -21575,7 +21377,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.887266479161877</v>
+        <v>1.989178354764783</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.062960919704892</v>
@@ -21664,7 +21466,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.867790405258162</v>
+        <v>1.968954591909754</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.412091595764499</v>
@@ -21753,7 +21555,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.855348609529133</v>
+        <v>1.958018296244394</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.583501999510168</v>
@@ -21842,7 +21644,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.833568255881095</v>
+        <v>1.936452518040661</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.083017263567441</v>
@@ -21931,7 +21733,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.8234925890473</v>
+        <v>1.92463642138469</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.815216809971058</v>
@@ -22020,7 +21822,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.785155319034404</v>
+        <v>1.887574880675148</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.423787282842207</v>
@@ -22109,7 +21911,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.767807994476544</v>
+        <v>1.866597065885318</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.11492132658793</v>
@@ -22198,7 +22000,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.776531624208708</v>
+        <v>1.872579966697621</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.735959399052094</v>
@@ -22287,7 +22089,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.745263088542216</v>
+        <v>1.837097077977728</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.183987621103276</v>
@@ -22376,7 +22178,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.729167184067226</v>
+        <v>1.819765975243344</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.674881245954279</v>
@@ -22465,7 +22267,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.719778747927967</v>
+        <v>1.808331111172633</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.122093242551942</v>
@@ -22554,7 +22356,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.664729681260559</v>
+        <v>1.749960964188082</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.968688881930901</v>
@@ -22643,7 +22445,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.638107008465733</v>
+        <v>1.714032564406991</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.999968533771782</v>
@@ -22732,7 +22534,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.607177984798438</v>
+        <v>1.684850487205584</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.872628133032033</v>
@@ -22821,7 +22623,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.584236636842449</v>
+        <v>1.657953545351746</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.391127342841362</v>
@@ -22910,7 +22712,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.568224507214528</v>
+        <v>1.638315785215567</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.409807888466333</v>
@@ -22999,7 +22801,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.512793078684783</v>
+        <v>1.575346261748054</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.462696326674389</v>
@@ -23285,7 +23087,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.108312239978051</v>
+        <v>2.168374615756945</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5.805602797252606</v>
@@ -23374,7 +23176,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.107506463429321</v>
+        <v>2.168981246067993</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.58510195889539</v>
@@ -23463,7 +23265,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.109600634708478</v>
+        <v>2.170977517188367</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.318266732763616</v>
@@ -23552,7 +23354,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.119943036649369</v>
+        <v>2.181455267157777</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.275479671655686</v>
@@ -23641,7 +23443,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.118908351579921</v>
+        <v>2.18011884272897</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>7.202785127152982</v>
@@ -23730,7 +23532,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.118143971081181</v>
+        <v>2.179834998621516</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5.517543563427801</v>
@@ -23819,7 +23621,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.123021385180536</v>
+        <v>2.182345175348354</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>6.215670438793158</v>
@@ -23908,7 +23710,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.125333006912487</v>
+        <v>2.183189494105246</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>7.24721386114187</v>
@@ -23997,7 +23799,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.120511262033421</v>
+        <v>2.179594749350231</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>7.109214090034447</v>
@@ -24086,7 +23888,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.125265564564224</v>
+        <v>2.182248712441932</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.074846721687476</v>
@@ -24175,7 +23977,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.12808756973036</v>
+        <v>2.185153947557707</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.455292820760604</v>
@@ -24264,7 +24066,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.127372202783878</v>
+        <v>2.18545448074134</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.756412411318006</v>
@@ -24353,7 +24155,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.129869514893972</v>
+        <v>2.187421136760854</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>7.027645303863783</v>
@@ -24442,7 +24244,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.129697727905027</v>
+        <v>2.186648081849643</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.901145451948923</v>
@@ -24531,7 +24333,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.129608847229369</v>
+        <v>2.186069714835119</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>6.500211273585143</v>
@@ -24620,7 +24422,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.129663924737438</v>
+        <v>2.186494474182232</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>7.853685379062612</v>
@@ -24709,7 +24511,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.125956139717081</v>
+        <v>2.18221437464027</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.065995601949717</v>
@@ -24798,7 +24600,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.119180664112971</v>
+        <v>2.178740950816867</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.503655841902564</v>
@@ -24887,7 +24689,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.119602731509877</v>
+        <v>2.180160403790722</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>6.551713698304745</v>
@@ -24976,7 +24778,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.115200365150628</v>
+        <v>2.180237857027093</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.871086681134025</v>
@@ -25065,7 +24867,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.115780241658478</v>
+        <v>2.179684854307401</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.057547567888545</v>
@@ -25154,7 +24956,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.114928541473323</v>
+        <v>2.18069174928469</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>6.555953376688002</v>
@@ -25243,7 +25045,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.113516106033215</v>
+        <v>2.178951497955175</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.653177204390232</v>
@@ -25332,7 +25134,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.114103327207142</v>
+        <v>2.179148497911505</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.153453041902731</v>
@@ -25421,7 +25223,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.113061428662061</v>
+        <v>2.177350706892263</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>6.813798291539093</v>
@@ -25510,7 +25312,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.114792531789912</v>
+        <v>2.178905049961721</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.503205161309427</v>
@@ -25599,7 +25401,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.111650297864664</v>
+        <v>2.176872891410681</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6.909330226908773</v>
@@ -25688,7 +25490,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.106268765847101</v>
+        <v>2.171730815934314</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.060221074770777</v>
@@ -25777,7 +25579,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.106724956729752</v>
+        <v>2.170721050032654</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.30008556224444</v>
@@ -25866,7 +25668,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.114973591959546</v>
+        <v>2.175463586284251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>6.058539740336659</v>
@@ -25955,7 +25757,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.108046056737927</v>
+        <v>2.170902018936355</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.196322338616976</v>
@@ -26044,7 +25846,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.11447954188534</v>
+        <v>2.174264474974508</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.847049926153008</v>
@@ -26133,7 +25935,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.117124011159098</v>
+        <v>2.17649732829412</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.855231688344674</v>
@@ -26222,7 +26024,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.117023987681771</v>
+        <v>2.174125500536228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.534852849239217</v>
@@ -26311,7 +26113,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.119184900253815</v>
+        <v>2.174518892500842</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.601408007429266</v>
@@ -26400,7 +26202,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.116361902763973</v>
+        <v>2.169809756551907</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6.232606047361486</v>
@@ -26489,7 +26291,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.117766222395118</v>
+        <v>2.170607510692165</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.076844194194414</v>
@@ -26578,7 +26380,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.119156623778313</v>
+        <v>2.17245892853847</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.164342963994173</v>
@@ -26667,7 +26469,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.119400075804559</v>
+        <v>2.172550827637684</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.712805782826861</v>
@@ -26756,7 +26558,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.116497464408298</v>
+        <v>2.171714345448478</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.245969832590385</v>
@@ -26845,7 +26647,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.114212376925218</v>
+        <v>2.169294014432957</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.656113117333499</v>
@@ -26934,7 +26736,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.111647394164795</v>
+        <v>2.165559319648477</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.697989082170172</v>
@@ -27023,7 +26825,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.116970910466031</v>
+        <v>2.170440476292674</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>6.374672340064651</v>
@@ -27112,7 +26914,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.104550508656658</v>
+        <v>2.164741815053123</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.73904065123711</v>
@@ -27201,7 +27003,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.096711207403907</v>
+        <v>2.157936429685618</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>5.707865519044542</v>
@@ -27290,7 +27092,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.104742756952891</v>
+        <v>2.163604547398097</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.688514661478536</v>
@@ -27379,7 +27181,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.103381999362508</v>
+        <v>2.162002646631078</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.822053920013214</v>
@@ -27468,7 +27270,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.083716741030285</v>
+        <v>2.146130523384978</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.073488784485964</v>
@@ -27557,7 +27359,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.081975836783925</v>
+        <v>2.143783694683547</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.537761216040516</v>
@@ -27646,7 +27448,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.070848085472943</v>
+        <v>2.134971644045061</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.802029262625172</v>
@@ -27735,7 +27537,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.067672310494481</v>
+        <v>2.134626325806845</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.817360254889945</v>
@@ -27824,7 +27626,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.065914680697453</v>
+        <v>2.134081735894205</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.822554168460624</v>
@@ -27913,7 +27715,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.059662462513729</v>
+        <v>2.1277788126635</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.845189691667356</v>
@@ -28002,7 +27804,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.050771428863202</v>
+        <v>2.121069163807747</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.894633376346667</v>
@@ -28091,7 +27893,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.051438175621367</v>
+        <v>2.120004597050161</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.091781896624354</v>
@@ -28180,7 +27982,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.047474850071033</v>
+        <v>2.11629277043098</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.590627080477171</v>
@@ -28269,7 +28071,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.041569755414828</v>
+        <v>2.111479714871784</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.181181611780325</v>
@@ -28358,7 +28160,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.038096432540264</v>
+        <v>2.107207019727461</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.104464209842752</v>
@@ -28447,7 +28249,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.047849437168066</v>
+        <v>2.111122528036903</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.077840947542767</v>
@@ -28536,7 +28338,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.051568823733525</v>
+        <v>2.114433296275869</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.063176590651349</v>
@@ -28625,7 +28427,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.030550153588839</v>
+        <v>2.100708015749488</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.920551501100465</v>
@@ -28714,7 +28516,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.026933685007965</v>
+        <v>2.099344877240346</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.712534741950456</v>
@@ -28803,7 +28605,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.04355640241545</v>
+        <v>2.11245851660419</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.658940649294196</v>
@@ -28892,7 +28694,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.039236051608613</v>
+        <v>2.111558516363038</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.959639625248263</v>
@@ -28981,7 +28783,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.039946673297774</v>
+        <v>2.11076640422564</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.097544228560356</v>
@@ -29070,7 +28872,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.012116418016865</v>
+        <v>2.086885899225684</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.937936651523263</v>
@@ -29159,7 +28961,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.005070102639778</v>
+        <v>2.078841503318565</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.201033121531664</v>
@@ -29248,7 +29050,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.990418682127432</v>
+        <v>2.06202638427143</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.07194008857554</v>
@@ -29337,7 +29139,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.979344295611552</v>
+        <v>2.045364122472152</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.019114616612295</v>
@@ -29426,7 +29228,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.962145336971637</v>
+        <v>2.026869909882413</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.937297519422764</v>
@@ -29515,7 +29317,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.938865000009407</v>
+        <v>2.00320827525064</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.884950101457881</v>
@@ -29604,7 +29406,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.916948214685291</v>
+        <v>1.972525512704332</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.986281222801612</v>
@@ -29693,7 +29495,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.884110312288227</v>
+        <v>1.941031072191862</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.609633497518474</v>
@@ -29782,7 +29584,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.859885943921753</v>
+        <v>1.912447117158273</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.224983110332055</v>
@@ -29871,7 +29673,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.836359358365341</v>
+        <v>1.881244116525266</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.151008405089997</v>
@@ -29960,7 +29762,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.811905359305271</v>
+        <v>1.850684617282956</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.250864799452058</v>
@@ -30246,7 +30048,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.169852281270882</v>
+        <v>2.199674378203923</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>6.585798932060576</v>
@@ -30335,7 +30137,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.172576433680469</v>
+        <v>2.201041267966235</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.404878084169868</v>
@@ -30424,7 +30226,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.177675237792564</v>
+        <v>2.205749630780774</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.805582532711761</v>
@@ -30513,7 +30315,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.193751175089661</v>
+        <v>2.219819101075678</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.392342909516937</v>
@@ -30602,7 +30404,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.197813976466818</v>
+        <v>2.223195403165481</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>7.640655927429762</v>
@@ -30691,7 +30493,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.199188739728561</v>
+        <v>2.225008673221722</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5.430779409940952</v>
@@ -30780,7 +30582,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.198420962183735</v>
+        <v>2.224821752608967</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>6.145453669401975</v>
@@ -30869,7 +30671,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.201811566117184</v>
+        <v>2.226559836527858</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>7.164645514243686</v>
@@ -30958,7 +30760,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.2017423835998</v>
+        <v>2.226649825824004</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.918992747922903</v>
@@ -31047,7 +30849,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.201525627086359</v>
+        <v>2.226918988338868</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6.320458837498979</v>
@@ -31136,7 +30938,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.202542890945569</v>
+        <v>2.22768829813064</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.412471908075406</v>
@@ -31225,7 +31027,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.201383757145655</v>
+        <v>2.227071476752375</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.612514651534734</v>
@@ -31314,7 +31116,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.19702009286076</v>
+        <v>2.223140615358195</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>6.905151164918407</v>
@@ -31403,7 +31205,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.206744382146637</v>
+        <v>2.228315181561771</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.36610451618019</v>
@@ -31492,7 +31294,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.20824292241376</v>
+        <v>2.228872011215125</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>6.176521142326391</v>
@@ -31581,7 +31383,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.206767446937514</v>
+        <v>2.227698010504708</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>8.130729377630155</v>
@@ -31670,7 +31472,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.202635789314154</v>
+        <v>2.226359959929088</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.919984448397848</v>
@@ -31759,7 +31561,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.199571553043566</v>
+        <v>2.224899293374299</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>7.263928053728315</v>
@@ -31848,7 +31650,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.196137415059875</v>
+        <v>2.22393214315179</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>7.660649917605703</v>
@@ -31937,7 +31739,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.188026644609349</v>
+        <v>2.220346593823332</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.806046382290353</v>
@@ -32026,7 +31828,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.184877872042485</v>
+        <v>2.217617709675688</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.978925300160593</v>
@@ -32115,7 +31917,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.182516026784336</v>
+        <v>2.216831433998197</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>7.138025504807724</v>
@@ -32204,7 +32006,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.182399219889676</v>
+        <v>2.216836799023341</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.80788041807793</v>
@@ -32293,7 +32095,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.182470109817902</v>
+        <v>2.216710658155995</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>7.529532931991473</v>
@@ -32382,7 +32184,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.18335101442276</v>
+        <v>2.217178992131867</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>6.53683036028093</v>
@@ -32471,7 +32273,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.183525492906275</v>
+        <v>2.217230698333544</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.70102836987239</v>
@@ -32560,7 +32362,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.183644061435171</v>
+        <v>2.217251841436993</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>7.265235248141916</v>
@@ -32649,7 +32451,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.191857054132251</v>
+        <v>2.221272322274863</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>6.873528788773323</v>
@@ -32738,7 +32540,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.182844604859571</v>
+        <v>2.217068333598417</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>7.153392473808911</v>
@@ -32827,7 +32629,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.183689191028441</v>
+        <v>2.217763872970588</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>8.086008891811787</v>
@@ -32916,7 +32718,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.186034060749125</v>
+        <v>2.218774836969952</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.372287736177112</v>
@@ -33005,7 +32807,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.187905879595675</v>
+        <v>2.219786440918051</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.673320331453978</v>
@@ -33094,7 +32896,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.188816350965875</v>
+        <v>2.219681304831017</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>7.15276689361311</v>
@@ -33183,7 +32985,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.193598796855939</v>
+        <v>2.220906000481545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>8.149679519538257</v>
@@ -33272,7 +33074,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.200738810206618</v>
+        <v>2.224436143241863</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.718234310041458</v>
@@ -33361,7 +33163,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.203310942049689</v>
+        <v>2.225049591452394</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6.721956404388449</v>
@@ -33450,7 +33252,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.204559348599662</v>
+        <v>2.225239760489544</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.846065359722858</v>
@@ -33539,7 +33341,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.205587430704709</v>
+        <v>2.225179053583227</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>6.250387639157529</v>
@@ -33628,7 +33430,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.205573922615389</v>
+        <v>2.225271165900425</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>7.128388103835394</v>
@@ -33717,7 +33519,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.206372097877824</v>
+        <v>2.225416981973315</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>6.271305612402534</v>
@@ -33806,7 +33608,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.202934796673614</v>
+        <v>2.222892742408037</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>6.520737290573501</v>
@@ -33895,7 +33697,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.201608267380412</v>
+        <v>2.222000862053246</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>7.522637293099309</v>
@@ -33984,7 +33786,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.200951233124787</v>
+        <v>2.222329711197054</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>6.02197668088148</v>
@@ -34073,7 +33875,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.208766681222142</v>
+        <v>2.226934633864996</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>6.879176637716301</v>
@@ -34162,7 +33964,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.207219270392136</v>
+        <v>2.226634602793573</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>6.346499262078843</v>
@@ -34251,7 +34053,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.209650893863915</v>
+        <v>2.226619597552114</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>8.889519381430109</v>
@@ -34340,7 +34142,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.2089834769366</v>
+        <v>2.22574121199705</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>9.961648088067976</v>
@@ -34429,7 +34231,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.197280328831026</v>
+        <v>2.218189661444569</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.531494613163715</v>
@@ -34518,7 +34320,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.194780579507195</v>
+        <v>2.217108322226828</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>6.020285768872469</v>
@@ -34607,7 +34409,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.193528041191219</v>
+        <v>2.216084692824897</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.621827618700809</v>
@@ -34696,7 +34498,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.192891797829148</v>
+        <v>2.215445239164946</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>7.231311155875384</v>
@@ -34785,7 +34587,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.192467150743995</v>
+        <v>2.2160149148301</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>6.48509492672306</v>
@@ -34874,7 +34676,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.190325243210411</v>
+        <v>2.214790597719442</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>5.616625745400515</v>
@@ -34963,7 +34765,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.188187983947463</v>
+        <v>2.212382304314238</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>6.239168777070216</v>
@@ -35052,7 +34854,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.180732707253207</v>
+        <v>2.208424916836035</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>6.22190056474395</v>
@@ -35141,7 +34943,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.18166051562479</v>
+        <v>2.208298515795282</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.023618483628058</v>
@@ -35230,7 +35032,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.178947996790649</v>
+        <v>2.206035342199331</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.530634804192846</v>
@@ -35319,7 +35121,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.175434801041924</v>
+        <v>2.202609866098471</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>5.38809915583827</v>
@@ -35408,7 +35210,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.175385053492459</v>
+        <v>2.200304629447581</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.495438314022516</v>
@@ -35497,7 +35299,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.173005433027731</v>
+        <v>2.197768574879709</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>5.052924580710599</v>
@@ -35586,7 +35388,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.165075393826188</v>
+        <v>2.193406574855186</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.917096374461355</v>
@@ -35675,7 +35477,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.161816287672126</v>
+        <v>2.19142258005171</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>5.448679877046923</v>
@@ -35764,7 +35566,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.170865474392675</v>
+        <v>2.197018096658773</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>6.475742500076882</v>
@@ -35853,7 +35655,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.167126255011874</v>
+        <v>2.192820860775555</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>5.536307360945786</v>
@@ -35942,7 +35744,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.157441002005564</v>
+        <v>2.185480546043173</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>6.874279776507252</v>
@@ -36031,7 +35833,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.117201277608536</v>
+        <v>2.153994035030972</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>5.184648824798879</v>
@@ -36120,7 +35922,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.105587368269546</v>
+        <v>2.146308171459786</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.786260254346122</v>
@@ -36209,7 +36011,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.089029565308943</v>
+        <v>2.131022970310976</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.049006452883846</v>
@@ -36298,7 +36100,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>2.071681631633172</v>
+        <v>2.115256975847595</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.082724961301723</v>
@@ -36387,7 +36189,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>2.061724940082041</v>
+        <v>2.102107378420145</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.147979175243249</v>
@@ -36476,7 +36278,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>2.040924446660479</v>
+        <v>2.083208206872768</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.776185318347784</v>
@@ -36565,7 +36367,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>2.019197467041136</v>
+        <v>2.06286726818684</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.748088546258582</v>
@@ -36654,7 +36456,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.999523423313533</v>
+        <v>2.043728603002518</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.769120258002895</v>
@@ -36743,7 +36545,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.981882717727441</v>
+        <v>2.028691349717637</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.337537921416559</v>
@@ -36832,7 +36634,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.963592063276107</v>
+        <v>2.012853703642497</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.343953101089217</v>
@@ -36921,7 +36723,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.926036805380865</v>
+        <v>1.969832984537277</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.448100202587009</v>
@@ -37207,7 +37009,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.08791645801435</v>
+        <v>2.147169146172233</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.682424477657206</v>
@@ -37296,7 +37098,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.082144908543246</v>
+        <v>2.14189830318842</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.239525865677244</v>
@@ -37385,7 +37187,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.089021603376524</v>
+        <v>2.148820325401938</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.962574453872075</v>
@@ -37474,7 +37276,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.117872593202331</v>
+        <v>2.17605478337746</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.403417824456155</v>
@@ -37563,7 +37365,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.122435439295122</v>
+        <v>2.1801655714237</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.824694063100821</v>
@@ -37652,7 +37454,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.131257239275659</v>
+        <v>2.186304977437559</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5.076651275260994</v>
@@ -37741,7 +37543,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.141958855988943</v>
+        <v>2.192661306323178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.37704601872689</v>
@@ -37830,7 +37632,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.146260155117786</v>
+        <v>2.19636361344758</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.039681695382829</v>
@@ -37919,7 +37721,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.151323299964599</v>
+        <v>2.198660600534495</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.188746974590843</v>
@@ -38008,7 +37810,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.159363366412638</v>
+        <v>2.201189963950842</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.419002821401188</v>
@@ -38097,7 +37899,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.171857822087286</v>
+        <v>2.212532115394925</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.033137880451536</v>
@@ -38186,7 +37988,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.172537807310026</v>
+        <v>2.213101817972245</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.338622637193734</v>
@@ -38275,7 +38077,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.171812809611919</v>
+        <v>2.212371773114337</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.659302914673989</v>
@@ -38364,7 +38166,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.16911146886025</v>
+        <v>2.210862773711492</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.955660795904388</v>
@@ -38453,7 +38255,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.171472019593522</v>
+        <v>2.211854621671415</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>5.982755662544609</v>
@@ -38542,7 +38344,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.185052591646966</v>
+        <v>2.220344437034131</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>5.338819164876352</v>
@@ -38631,7 +38433,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.198072688158506</v>
+        <v>2.229777105065534</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>6.245527096647478</v>
@@ -38720,7 +38522,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.192444060766392</v>
+        <v>2.225356249397513</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>7.211664759413542</v>
@@ -38809,7 +38611,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.187165621501299</v>
+        <v>2.220701511251165</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>9.558475595830087</v>
@@ -38898,7 +38700,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.177551336675588</v>
+        <v>2.215544626317123</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.970661951027992</v>
@@ -38987,7 +38789,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.167667368218504</v>
+        <v>2.208935763575225</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.137909596234291</v>
@@ -39076,7 +38878,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.164096848900719</v>
+        <v>2.207536126275391</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>7.010353737800553</v>
@@ -39165,7 +38967,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.159647610772806</v>
+        <v>2.204173942670338</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>5.938189157471581</v>
@@ -39254,7 +39056,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.152862566260981</v>
+        <v>2.200678029021959</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>6.661383249145011</v>
@@ -39343,7 +39145,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.147456706466388</v>
+        <v>2.197419793221713</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.185019039600073</v>
@@ -39432,7 +39234,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.150075743202028</v>
+        <v>2.197598657023425</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.877654000368976</v>
@@ -39521,7 +39323,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.147891308808176</v>
+        <v>2.197825836810531</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.387279555112161</v>
@@ -39610,7 +39412,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.149389481171619</v>
+        <v>2.199176958366876</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.688575464350818</v>
@@ -39699,7 +39501,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.149186977881539</v>
+        <v>2.198465402550751</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.954696047889286</v>
@@ -39788,7 +39590,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.147141357939766</v>
+        <v>2.197135472731519</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.868472157375341</v>
@@ -39877,7 +39679,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.144822948062832</v>
+        <v>2.195537409058801</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.812564807756465</v>
@@ -39966,7 +39768,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.14265359097719</v>
+        <v>2.193186540219258</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.84065132313401</v>
@@ -40055,7 +39857,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.14414057042501</v>
+        <v>2.194736346364958</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.364289167220077</v>
@@ -40144,7 +39946,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.148736913940583</v>
+        <v>2.198322459408377</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.54740202407628</v>
@@ -40233,7 +40035,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.157022673076257</v>
+        <v>2.203716077776309</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.818155915872681</v>
@@ -40322,7 +40124,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.156735766645742</v>
+        <v>2.203303904339677</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.978020379293464</v>
@@ -40411,7 +40213,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.145829729279894</v>
+        <v>2.196115297846073</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.586385636348847</v>
@@ -40500,7 +40302,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.128512989525732</v>
+        <v>2.186683392607077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.413370479120869</v>
@@ -40589,7 +40391,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.126098798782363</v>
+        <v>2.183860798805967</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.305632403011644</v>
@@ -40678,7 +40480,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.12935548746688</v>
+        <v>2.185609283805916</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.524213874480195</v>
@@ -40767,7 +40569,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.131602248419184</v>
+        <v>2.186109500296944</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.277164192373047</v>
@@ -40856,7 +40658,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.128209882627651</v>
+        <v>2.184195202163346</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.008611255583854</v>
@@ -40945,7 +40747,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.1210843986971</v>
+        <v>2.179689484763572</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5.516149582241471</v>
@@ -41034,7 +40836,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.110732894918061</v>
+        <v>2.174170370811059</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.39756178799748</v>
@@ -41123,7 +40925,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.109666715280557</v>
+        <v>2.173307005750159</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.405347522494505</v>
@@ -41212,7 +41014,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.109026233025684</v>
+        <v>2.173211696015802</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.966980560326782</v>
@@ -41301,7 +41103,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.110398425169726</v>
+        <v>2.173842823815585</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.569714038700043</v>
@@ -41390,7 +41192,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.093688567388449</v>
+        <v>2.160702515425717</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.130561908941143</v>
@@ -41479,7 +41281,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.091640036200396</v>
+        <v>2.158988543499965</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.543368717101789</v>
@@ -41568,7 +41370,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.08320912686698</v>
+        <v>2.152939146612786</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.560844788521676</v>
@@ -41657,7 +41459,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.083537185955233</v>
+        <v>2.15255111273629</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.628813325830551</v>
@@ -41746,7 +41548,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.103261967526594</v>
+        <v>2.166062123292618</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.532286399461912</v>
@@ -41835,7 +41637,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.104899371446745</v>
+        <v>2.166207655691045</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.403402303141608</v>
@@ -41924,7 +41726,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.092804456507077</v>
+        <v>2.156911239805299</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.344089478057128</v>
@@ -42013,7 +41815,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.084447276846529</v>
+        <v>2.151271957169493</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.802684499222136</v>
@@ -42102,7 +41904,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.071720417714572</v>
+        <v>2.142342505220902</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.542574633161802</v>
@@ -42191,7 +41993,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.065682854907837</v>
+        <v>2.137920830771379</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.591576973828627</v>
@@ -42280,7 +42082,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.06469222275865</v>
+        <v>2.13412720373578</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.44341412125661</v>
@@ -42369,7 +42171,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.063785219038598</v>
+        <v>2.131947019895131</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.701989016564045</v>
@@ -42458,7 +42260,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.059882680938591</v>
+        <v>2.128173256481687</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.859373076717835</v>
@@ -42547,7 +42349,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.007488984315261</v>
+        <v>2.088708354611468</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.50543578427727</v>
@@ -42636,7 +42438,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.984125287234781</v>
+        <v>2.070004355541186</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.538408454953758</v>
@@ -42725,7 +42527,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.994348210800112</v>
+        <v>2.079755334296443</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.726867206718893</v>
@@ -42814,7 +42616,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.973815394887064</v>
+        <v>2.062856769050968</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.614058812457526</v>
@@ -42903,7 +42705,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.966329063767384</v>
+        <v>2.056812007903801</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.464496912507075</v>
@@ -42992,7 +42794,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.959127929031246</v>
+        <v>2.049009205694779</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.491930878245478</v>
@@ -43081,7 +42883,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.944345961665345</v>
+        <v>2.034112514428393</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.337176338813581</v>
@@ -43170,7 +42972,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.919627627349407</v>
+        <v>2.006528671515534</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.396679709460806</v>
@@ -43259,7 +43061,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.914053294263501</v>
+        <v>1.998778366055795</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.317195760761538</v>
@@ -43348,7 +43150,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.89562813754134</v>
+        <v>1.978834658768152</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.289599974556655</v>
@@ -43437,7 +43239,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.8717951755836</v>
+        <v>1.953127734160831</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.097956376598386</v>
@@ -43526,7 +43328,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.829285571536735</v>
+        <v>1.902845408773664</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.13179802724349</v>
@@ -43615,7 +43417,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.805629396959356</v>
+        <v>1.878606645110384</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.87140339968555</v>
@@ -43704,7 +43506,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.768868717217052</v>
+        <v>1.838519043358928</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.73955493739899</v>
@@ -43793,7 +43595,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.74789440003744</v>
+        <v>1.812372999557504</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.562584312090529</v>
@@ -43882,7 +43684,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.739442727419317</v>
+        <v>1.798157186313424</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.953460123310097</v>
@@ -44168,7 +43970,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.00807282236064</v>
+        <v>2.087358139136968</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.333206739759786</v>
@@ -44257,7 +44059,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.009483442177068</v>
+        <v>2.088598405637298</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.223361266316304</v>
@@ -44346,7 +44148,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.026394536545391</v>
+        <v>2.101554693643979</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.504061720194833</v>
@@ -44435,7 +44237,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.042444940386307</v>
+        <v>2.11421833573983</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.415005658886322</v>
@@ -44524,7 +44326,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.059279387736169</v>
+        <v>2.126392805569618</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.962145740513766</v>
@@ -44613,7 +44415,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.043337105008187</v>
+        <v>2.115600397546967</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.735323640204541</v>
@@ -44702,7 +44504,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.060367731808602</v>
+        <v>2.129730242846594</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.883406122671115</v>
@@ -44791,7 +44593,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.058860832517773</v>
+        <v>2.129803479805958</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.899361043881123</v>
@@ -44880,7 +44682,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.057970765785016</v>
+        <v>2.129984180896106</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.260727391207433</v>
@@ -44969,7 +44771,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.05870436124237</v>
+        <v>2.130492293399727</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.199332658108543</v>
@@ -45058,7 +44860,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.058152559612329</v>
+        <v>2.130161042925495</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.257755771119212</v>
@@ -45147,7 +44949,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.05660373691985</v>
+        <v>2.128590404092999</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.595090559950733</v>
@@ -45236,7 +45038,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.071990849268688</v>
+        <v>2.139093599351193</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.913154368473705</v>
@@ -45325,7 +45127,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.071907913458318</v>
+        <v>2.137644919694331</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.321435879020425</v>
@@ -45414,7 +45216,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.072378469030094</v>
+        <v>2.137021282378488</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.647684823042947</v>
@@ -45503,7 +45305,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.077114627101226</v>
+        <v>2.140361972494111</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.662740604971456</v>
@@ -45592,7 +45394,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.094391238174902</v>
+        <v>2.151591917883973</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.625329754730108</v>
@@ -45681,7 +45483,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.070303274841266</v>
+        <v>2.134076706834476</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.289088909168771</v>
@@ -45770,7 +45572,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.083140768683423</v>
+        <v>2.142790107386642</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.943812690805268</v>
@@ -45859,7 +45661,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.059023484669233</v>
+        <v>2.125565931688323</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.914369782146861</v>
@@ -45948,7 +45750,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.056952584802543</v>
+        <v>2.123359877913044</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.088170545090393</v>
@@ -46037,7 +45839,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.056029020590806</v>
+        <v>2.122843053381541</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.472200769452381</v>
@@ -46126,7 +45928,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.07414239289644</v>
+        <v>2.135829053788882</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.642722487343473</v>
@@ -46215,7 +46017,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.055212333689779</v>
+        <v>2.121393881681358</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.731201710118995</v>
@@ -46304,7 +46106,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.038223950484729</v>
+        <v>2.108909559902019</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.18713085950346</v>
@@ -46393,7 +46195,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.055040800099238</v>
+        <v>2.121753395580085</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.871975737850153</v>
@@ -46482,7 +46284,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.048082211808976</v>
+        <v>2.11575183886451</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.263133883909586</v>
@@ -46571,7 +46373,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.02832866256081</v>
+        <v>2.104839459944735</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.890883643418698</v>
@@ -46660,7 +46462,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.017210016056771</v>
+        <v>2.09647485504444</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.663829248692605</v>
@@ -46749,7 +46551,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.029991237680064</v>
+        <v>2.106397879892131</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.282577720468336</v>
@@ -46838,7 +46640,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.022483659212925</v>
+        <v>2.100178081579828</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.038529481159398</v>
@@ -46927,7 +46729,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.019936506560288</v>
+        <v>2.100008332262897</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.114699533727078</v>
@@ -47016,7 +46818,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.025678988045903</v>
+        <v>2.104458751232351</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.19272135181522</v>
@@ -47105,7 +46907,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.027985648371764</v>
+        <v>2.105536428423027</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.635449226288201</v>
@@ -47194,7 +46996,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.04927504470924</v>
+        <v>2.121950328670159</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.735764719039096</v>
@@ -47283,7 +47085,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.056658158562205</v>
+        <v>2.126950857617684</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.497215898716767</v>
@@ -47372,7 +47174,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.043313366430125</v>
+        <v>2.116705244504192</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.032966096077463</v>
@@ -47461,7 +47263,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.043722340038512</v>
+        <v>2.115139359784958</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.829448692035273</v>
@@ -47550,7 +47352,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.049625717441796</v>
+        <v>2.120423136252331</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.598286122628441</v>
@@ -47639,7 +47441,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.068167750440638</v>
+        <v>2.134071999776461</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.627012796931589</v>
@@ -47728,7 +47530,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.066683242779841</v>
+        <v>2.133149031339618</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.28596419454687</v>
@@ -47817,7 +47619,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.064378245831224</v>
+        <v>2.13136873759071</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.581132849057798</v>
@@ -47906,7 +47708,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.070072714906334</v>
+        <v>2.132435282261422</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.913225370287554</v>
@@ -47995,7 +47797,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.07375041262187</v>
+        <v>2.137341084461504</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.153879052528569</v>
@@ -48084,7 +47886,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.066551842734804</v>
+        <v>2.130101798084643</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.056692971492962</v>
@@ -48173,7 +47975,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.068077951678942</v>
+        <v>2.134317517482902</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.014015347455651</v>
@@ -48262,7 +48064,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.052607785549147</v>
+        <v>2.122827449482991</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.655131948152731</v>
@@ -48351,7 +48153,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.062901492651497</v>
+        <v>2.129690322722368</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.446593090711356</v>
@@ -48440,7 +48242,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.058293568666985</v>
+        <v>2.125384624581876</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.135954040730454</v>
@@ -48529,7 +48331,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.037513677361713</v>
+        <v>2.109183684729577</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.295183974737196</v>
@@ -48618,7 +48420,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.024788340225927</v>
+        <v>2.10015048924086</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.40310613868034</v>
@@ -48707,7 +48509,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.032917696361478</v>
+        <v>2.107265461847851</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.177435115115681</v>
@@ -48796,7 +48598,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.006007023356775</v>
+        <v>2.085750093546432</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.744420483311053</v>
@@ -48885,7 +48687,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.988255417262746</v>
+        <v>2.070457905453254</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.688840279258799</v>
@@ -48974,7 +48776,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.977756836433653</v>
+        <v>2.061585572319131</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.909899299456093</v>
@@ -49063,7 +48865,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.950518018644679</v>
+        <v>2.038676520647571</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.522408133968796</v>
@@ -49152,7 +48954,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.933327203296757</v>
+        <v>2.022852565627904</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.31116458553306</v>
@@ -49241,7 +49043,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.920828134319563</v>
+        <v>2.008539087510946</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.00667679767118</v>
@@ -49330,7 +49132,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.909796533125556</v>
+        <v>2.000360965554109</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.855050610463648</v>
@@ -49419,7 +49221,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.912535205726966</v>
+        <v>2.001777124758096</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.691796493920936</v>
@@ -49508,7 +49310,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.883280475246514</v>
+        <v>1.973800940401749</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.56442279927814</v>
@@ -49597,7 +49399,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.869429728197663</v>
+        <v>1.955819794786924</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.487676849068868</v>
@@ -49686,7 +49488,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.855161260551302</v>
+        <v>1.94694817745744</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.691712825240028</v>
@@ -49775,7 +49577,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.834703033895295</v>
+        <v>1.925329795195969</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.974223219639709</v>
@@ -49864,7 +49666,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.831058292976336</v>
+        <v>1.922887638822098</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.438886835321741</v>
@@ -49953,7 +49755,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.817753742085473</v>
+        <v>1.905776608792286</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.083569708347446</v>
@@ -50042,7 +49844,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.809960726368331</v>
+        <v>1.895863957805172</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.921207419435165</v>
@@ -50131,7 +49933,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.79499462963798</v>
+        <v>1.881161621440236</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.258475984368291</v>
@@ -50220,7 +50022,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.800211264994046</v>
+        <v>1.881411731419775</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.073496451220751</v>
@@ -50309,7 +50111,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.777374769303448</v>
+        <v>1.854430131086504</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.188635884232582</v>
@@ -50398,7 +50200,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.738712255450023</v>
+        <v>1.812087993970992</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.225555638947587</v>
@@ -50487,7 +50289,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.739709892044518</v>
+        <v>1.800161946956988</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.066003981572494</v>
@@ -50576,7 +50378,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.724268977533848</v>
+        <v>1.788591381869655</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.62909635650082</v>
@@ -50665,7 +50467,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.673844791390716</v>
+        <v>1.73669164803977</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.657047770787298</v>
@@ -50754,7 +50556,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.656506652571925</v>
+        <v>1.716810567576287</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.612856790198074</v>
@@ -50843,7 +50645,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.64127983781202</v>
+        <v>1.694832015059858</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.546663395635715</v>
